--- a/exp3/exp3.xlsx
+++ b/exp3/exp3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7540" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11514" windowHeight="6906" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="exp2" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="exp9" sheetId="8" r:id="rId7"/>
     <sheet name="exp10" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>Vs</t>
   </si>
@@ -85,6 +85,66 @@
   <si>
     <t>Ns/Np</t>
   </si>
+  <si>
+    <t>Rl [Ohm]</t>
+  </si>
+  <si>
+    <t>Is^2Rl</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>R_internal</t>
+  </si>
+  <si>
+    <t>phi [rad]</t>
+  </si>
+  <si>
+    <t>Ic</t>
+  </si>
+  <si>
+    <t>Im</t>
+  </si>
+  <si>
+    <t>Rc</t>
+  </si>
+  <si>
+    <t>Xm</t>
+  </si>
+  <si>
+    <t>Loses P</t>
+  </si>
+  <si>
+    <t>proportions:</t>
+  </si>
+  <si>
+    <t>phase4delay</t>
+  </si>
+  <si>
+    <t>a*a</t>
+  </si>
+  <si>
+    <t>Is*</t>
+  </si>
+  <si>
+    <t>a^2</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
@@ -127,12 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,6 +226,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vs vs. Vp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -179,6 +269,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -252,6 +345,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -266,6 +360,9 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -381,6 +478,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vp [V]</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -404,6 +569,9 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -443,6 +611,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vs [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -466,6 +696,9 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -516,7 +749,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -544,6 +781,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vs/Vp vs. Ns/Np</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -629,6 +892,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -746,6 +1010,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ns/Np</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -808,6 +1128,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vs/Vp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -929,11 +1305,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Is [A]</a:t>
+              <a:t>Is vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Ip</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1025,6 +1406,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1142,6 +1524,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ip [A]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1204,6 +1642,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Is [A]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1325,11 +1819,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Is [A]</a:t>
+              <a:t>Is</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Ns</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1415,6 +1914,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1532,6 +2032,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ns [1/m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1594,6 +2150,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Is [A]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1632,6 +2244,525 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="381250832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P vs. Rl</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp10'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Is^2Rl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp10'!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10.211267605633804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6321070234113719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9622641509433958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.524096385542169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0172413793103452</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.172774869109948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2588235294117656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0602409638554215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9028475711892798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8730822873082289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3797468354430378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9953325554259043</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6042780748663101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1879259980525805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94930875576036877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp10'!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.8236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93956000000000017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97092000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0466800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1305000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2549600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3910099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4770199999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4852000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4654700000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4025000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2529399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.11755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69C6-473B-BFB5-2BCEF5083CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="516993104"/>
+        <c:axId val="516997368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="516993104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rl</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516997368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="516997368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Is^2Rl</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516993104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1840,6 +2971,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3389,6 +4560,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4013,16 +5700,51 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19056</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152406</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>368306</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>501656</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>461010</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4120,23 +5842,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4172,23 +5877,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4368,15 +6056,15 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4387,7 +6075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>2.13</v>
       </c>
@@ -4398,7 +6086,7 @@
         <v>0.1187</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>4.26</v>
       </c>
@@ -4409,7 +6097,7 @@
         <v>0.19059999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>6.38</v>
       </c>
@@ -4420,7 +6108,7 @@
         <v>0.25209999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>8.5</v>
       </c>
@@ -4431,7 +6119,7 @@
         <v>0.30969999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>10.63</v>
       </c>
@@ -4442,7 +6130,7 @@
         <v>0.3553</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>12.73</v>
       </c>
@@ -4453,7 +6141,7 @@
         <v>0.40239999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>14.8</v>
       </c>
@@ -4475,12 +6163,12 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4497,7 +6185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>10.68</v>
       </c>
@@ -4514,7 +6202,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>10.68</v>
       </c>
@@ -4531,7 +6219,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>10.68</v>
       </c>
@@ -4548,7 +6236,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>10.68</v>
       </c>
@@ -4565,7 +6253,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>10.68</v>
       </c>
@@ -4582,7 +6270,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4590,7 +6278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f>D2/A2</f>
         <v>9.3632958801498134E-2</v>
@@ -4600,7 +6288,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" ref="A10:A13" si="0">D3/A3</f>
         <v>0.28464419475655434</v>
@@ -4610,7 +6298,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>0.57031835205992509</v>
@@ -4620,7 +6308,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>0.76123595505617991</v>
@@ -4630,7 +6318,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>0.95121722846441958</v>
@@ -4648,18 +6336,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4672,8 +6361,29 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1.169</v>
       </c>
@@ -4685,6 +6395,53 @@
       </c>
       <c r="D2">
         <v>3.8</v>
+      </c>
+      <c r="F2">
+        <f>D2*O5</f>
+        <v>1.1925449231085246</v>
+      </c>
+      <c r="G2">
+        <f>C2*COS(F2)</f>
+        <v>4.9854965888847282E-2</v>
+      </c>
+      <c r="H2">
+        <f>C2*SIN(F2)</f>
+        <v>0.12545709376604366</v>
+      </c>
+      <c r="I2">
+        <f>A2/G2</f>
+        <v>23.448015240975405</v>
+      </c>
+      <c r="J2">
+        <f>A2/H2</f>
+        <v>9.3179266704518753</v>
+      </c>
+      <c r="L2" s="3">
+        <f>A2*C2*COS(F2)</f>
+        <v>5.8280455124062477E-2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N3">
+        <v>75.7</v>
+      </c>
+      <c r="O3">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5">
+        <f>RADIANS(N3)/O3</f>
+        <v>0.31382761134434856</v>
       </c>
     </row>
   </sheetData>
@@ -4697,15 +6454,15 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C8"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4716,7 +6473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4727,7 +6484,7 @@
         <v>0.1807</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4738,7 +6495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4749,7 +6506,7 @@
         <v>0.54259999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>8</v>
       </c>
@@ -4760,7 +6517,7 @@
         <v>0.72009999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>10</v>
       </c>
@@ -4771,7 +6528,7 @@
         <v>0.89759999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>12</v>
       </c>
@@ -4782,7 +6539,7 @@
         <v>1.0720000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>14</v>
       </c>
@@ -4801,18 +6558,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="E1:E6 C1:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4828,8 +6585,17 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>10</v>
       </c>
@@ -4845,8 +6611,20 @@
       <c r="E2">
         <v>0.1</v>
       </c>
+      <c r="G2">
+        <f>B2/C2</f>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>G2*G2</f>
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <f>E2*H2</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>10</v>
       </c>
@@ -4862,8 +6640,20 @@
       <c r="E3">
         <v>0.29699999999999999</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="0">B3/C3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="1">G3*G3</f>
+        <v>11.111111111111112</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="2">E3*H3</f>
+        <v>3.3000000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>10</v>
       </c>
@@ -4879,8 +6669,20 @@
       <c r="E4">
         <v>0.57699999999999996</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>1.6027777777777779</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>10</v>
       </c>
@@ -4896,8 +6698,20 @@
       <c r="E5">
         <v>0.747</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1.5625</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>1.1671875</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>10</v>
       </c>
@@ -4913,8 +6727,20 @@
       <c r="E6">
         <v>0.9</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
@@ -4930,12 +6756,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4949,7 +6775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0.1802</v>
       </c>
@@ -4970,18 +6796,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4994,8 +6820,35 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1.0049999999999999</v>
       </c>
@@ -5007,6 +6860,40 @@
       </c>
       <c r="D2">
         <v>4.21</v>
+      </c>
+      <c r="F2">
+        <f>A2*K2</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="H2">
+        <v>140</v>
+      </c>
+      <c r="I2">
+        <v>140</v>
+      </c>
+      <c r="J2">
+        <f>H2/I2</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>J2*J2</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>A2*B2*COS(RADIANS(C2))</f>
+        <v>0.52625609650707617</v>
+      </c>
+      <c r="N2">
+        <f>B2/A2</f>
+        <v>2.1094527363184081</v>
+      </c>
+      <c r="P2">
+        <f>M2/(A2*A2)</f>
+        <v>0.52103274325593552</v>
+      </c>
+      <c r="Q2">
+        <f>SQRT(N2*N2-P2*P2)</f>
+        <v>2.0440928861518044</v>
       </c>
     </row>
   </sheetData>
@@ -5016,15 +6903,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5037,8 +6924,26 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0.67800000000000005</v>
       </c>
@@ -5051,8 +6956,30 @@
       <c r="D2">
         <v>2.9</v>
       </c>
+      <c r="E2">
+        <f>D2/C2</f>
+        <v>10.211267605633804</v>
+      </c>
+      <c r="G2">
+        <f>C2*C2*E2</f>
+        <v>0.8236</v>
+      </c>
+      <c r="I2">
+        <f>$M$2*$M$2*E2</f>
+        <v>3.6760563380281694</v>
+      </c>
+      <c r="K2">
+        <v>84</v>
+      </c>
+      <c r="L2">
+        <v>140</v>
+      </c>
+      <c r="M2">
+        <f>K2/L2</f>
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0.70099999999999996</v>
       </c>
@@ -5065,8 +6992,20 @@
       <c r="D3">
         <v>2.88</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="0">D3/C3</f>
+        <v>9.6321070234113719</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="1">C3*C3*E3</f>
+        <v>0.86112</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I16" si="2">$M$2*$M$2*E3</f>
+        <v>3.4675585284280936</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0.73</v>
       </c>
@@ -5079,8 +7018,20 @@
       <c r="D4">
         <v>2.85</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>8.9622641509433958</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>3.2264150943396221</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -5093,8 +7044,20 @@
       <c r="D5">
         <v>2.83</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>8.524096385542169</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.93956000000000017</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>3.0686746987951805</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>0.77600000000000002</v>
       </c>
@@ -5107,8 +7070,20 @@
       <c r="D6">
         <v>2.79</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8.0172413793103452</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.97092000000000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>2.886206896551724</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0.83</v>
       </c>
@@ -5121,8 +7096,20 @@
       <c r="D7">
         <v>2.74</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7.172774869109948</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.0466800000000001</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>2.582198952879581</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>0.98</v>
       </c>
@@ -5135,8 +7122,20 @@
       <c r="D8">
         <v>2.66</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6.2588235294117656</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.1305000000000001</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>2.2531764705882353</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>1.0149999999999999</v>
       </c>
@@ -5149,8 +7148,20 @@
       <c r="D9">
         <v>2.52</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5.0602409638554215</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.2549600000000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1.8216867469879516</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1.177</v>
       </c>
@@ -5163,8 +7174,20 @@
       <c r="D10">
         <v>2.33</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.9028475711892798</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.3910099999999999</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>1.4050251256281407</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1.3740000000000001</v>
       </c>
@@ -5177,8 +7200,20 @@
       <c r="D11">
         <v>2.06</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.8730822873082289</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.4770199999999998</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1.0343096234309623</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1.496</v>
       </c>
@@ -5191,8 +7226,21 @@
       <c r="D12">
         <v>1.88</v>
       </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3797468354430378</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4852000000000001</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8567088607594936</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>1.607</v>
       </c>
@@ -5205,8 +7253,20 @@
       <c r="D13">
         <v>1.71</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.9953325554259043</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.4654700000000001</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.71831971995332555</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>1.736</v>
       </c>
@@ -5219,8 +7279,20 @@
       <c r="D14">
         <v>1.5</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.6042780748663101</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.4025000000000003</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.57754010695187163</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1.8879999999999999</v>
       </c>
@@ -5233,8 +7305,20 @@
       <c r="D15">
         <v>1.22</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.1879259980525805</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1.2529399999999999</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.42765335929892895</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1.984</v>
       </c>
@@ -5246,9 +7330,34 @@
       </c>
       <c r="D16">
         <v>1.03</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.94930875576036877</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.11755</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0.34175115207373274</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="2">
+        <f>I12</f>
+        <v>0.8567088607594936</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/exp3/exp3.xlsx
+++ b/exp3/exp3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11514" windowHeight="6906" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10284" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="exp2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
   <si>
     <t>Vs</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Is [A]</t>
-  </si>
-  <si>
-    <t>0.362.5</t>
   </si>
   <si>
     <t>Is [A] (delta 2mA)</t>
@@ -145,6 +142,36 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>phi [deg]</t>
+  </si>
+  <si>
+    <t>Is* theo</t>
+  </si>
+  <si>
+    <t>coeff</t>
+  </si>
+  <si>
+    <t>incept</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>theo coeff</t>
+  </si>
+  <si>
+    <t>etta</t>
+  </si>
+  <si>
+    <t>intersect</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
 </sst>
 </file>
 
@@ -187,13 +214,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1365,7 +1395,7 @@
                   <c:v>0.1807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.362.5</c:v>
+                  <c:v>0.3625</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5630,16 +5660,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>412756</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485146</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>107956</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180346</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6053,10 +6083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6064,7 +6094,7 @@
     <col min="1" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6074,8 +6104,20 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>2.13</v>
       </c>
@@ -6085,8 +6127,28 @@
       <c r="C2" s="1">
         <v>0.1187</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="array" ref="E2:G5">LINEST(B2:B8,A2:A8,,TRUE)</f>
+        <v>0.9803911542886361</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-9.2092328481948371E-2</v>
+      </c>
+      <c r="G2" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <f>ABS(I2-E2)/ABS(E3)</f>
+        <v>11.700474724689281</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>4.26</v>
       </c>
@@ -6096,8 +6158,20 @@
       <c r="C3" s="1">
         <v>0.19059999999999999</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.6759017196103241E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.5895576004815302E-2</v>
+      </c>
+      <c r="G3" s="1" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>6.38</v>
       </c>
@@ -6107,8 +6181,17 @@
       <c r="C4" s="1">
         <v>0.25209999999999999</v>
       </c>
+      <c r="E4" s="1">
+        <v>0.99998538960410754</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.8749737980795954E-2</v>
+      </c>
+      <c r="G4" s="1" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>8.5</v>
       </c>
@@ -6118,8 +6201,17 @@
       <c r="C5" s="1">
         <v>0.30969999999999998</v>
       </c>
+      <c r="E5" s="1">
+        <v>342217.07507663709</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>10.63</v>
       </c>
@@ -6130,7 +6222,7 @@
         <v>0.3553</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>12.73</v>
       </c>
@@ -6141,7 +6233,7 @@
         <v>0.40239999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>14.8</v>
       </c>
@@ -6160,15 +6252,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="9" max="9" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.89453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6184,8 +6280,20 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>10.68</v>
       </c>
@@ -6201,8 +6309,31 @@
       <c r="E2">
         <v>0.45700000000000002</v>
       </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2">
+        <f t="array" ref="I2:L6">LINEST(A9:A13,B9:B13,,TRUE)</f>
+        <v>0.95294415814817957</v>
+      </c>
+      <c r="J2">
+        <v>-1.4389907352650999E-3</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>ABS(I2-N2)/ABS(I3)</f>
+        <v>113.44031699924642</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>10.68</v>
       </c>
@@ -6218,8 +6349,23 @@
       <c r="E3">
         <v>0.45700000000000002</v>
       </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>4.1480703771422839E-4</v>
+      </c>
+      <c r="J3">
+        <v>2.6882568513006042E-4</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>10.68</v>
       </c>
@@ -6235,8 +6381,20 @@
       <c r="E4">
         <v>0.45700000000000002</v>
       </c>
+      <c r="I4">
+        <v>0.99999943156823901</v>
+      </c>
+      <c r="J4">
+        <v>3.0255332650925984E-4</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L4" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>10.68</v>
       </c>
@@ -6252,8 +6410,20 @@
       <c r="E5">
         <v>0.45700000000000002</v>
       </c>
+      <c r="I5">
+        <v>5277675.3528590174</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>10.68</v>
       </c>
@@ -6269,16 +6439,28 @@
       <c r="E6">
         <v>0.45700000000000002</v>
       </c>
+      <c r="I6">
+        <v>0.4831105664679311</v>
+      </c>
+      <c r="J6">
+        <v>2.7461554614545641E-7</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f>D2/A2</f>
         <v>9.3632958801498134E-2</v>
@@ -6288,7 +6470,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" ref="A10:A13" si="0">D3/A3</f>
         <v>0.28464419475655434</v>
@@ -6298,7 +6480,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>0.57031835205992509</v>
@@ -6308,7 +6490,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>0.76123595505617991</v>
@@ -6318,7 +6500,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>0.95121722846441958</v>
@@ -6339,7 +6521,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6362,25 +6544,25 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -6421,23 +6603,32 @@
         <v>5.8280455124062477E-2</v>
       </c>
       <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
         <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
       <c r="N3">
         <v>75.7</v>
       </c>
       <c r="O3">
         <v>4.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4">
+        <f>DEGREES(F2)</f>
+        <v>68.327790973871728</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="N5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5">
         <f>RADIANS(N3)/O3</f>
@@ -6451,10 +6642,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6462,7 +6653,7 @@
     <col min="3" max="3" width="16.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -6470,10 +6661,22 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6483,19 +6686,45 @@
       <c r="C2">
         <v>0.1807</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <f t="array" ref="H2:I6">LINEST(C2:C8,B2:B8,,TRUE)</f>
+        <v>0.77074434783011236</v>
+      </c>
+      <c r="I2">
+        <v>-3.1871864848632026E-2</v>
+      </c>
+      <c r="K2">
+        <f>ABS(H2-E2)/ABS(H3)</f>
+        <v>60.789687079992866</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
         <v>0.51300000000000001</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="C3" s="4">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>3.7712918618615556E-3</v>
+      </c>
+      <c r="I3">
+        <v>4.0545278900520178E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>6</v>
       </c>
@@ -6505,8 +6734,14 @@
       <c r="C4">
         <v>0.54259999999999997</v>
       </c>
+      <c r="H4">
+        <v>0.99988030455906973</v>
+      </c>
+      <c r="I4">
+        <v>4.590031607366981E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>8</v>
       </c>
@@ -6516,8 +6751,14 @@
       <c r="C5">
         <v>0.72009999999999996</v>
       </c>
+      <c r="H5">
+        <v>41767.685418437097</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>10</v>
       </c>
@@ -6527,8 +6768,14 @@
       <c r="C6">
         <v>0.89759999999999995</v>
       </c>
+      <c r="H6">
+        <v>0.87997789233493118</v>
+      </c>
+      <c r="I6">
+        <v>1.0534195078313954E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>12</v>
       </c>
@@ -6539,7 +6786,7 @@
         <v>1.0720000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>14</v>
       </c>
@@ -6558,10 +6805,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6569,7 +6816,7 @@
     <col min="3" max="3" width="16.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -6583,19 +6830,31 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
-        <v>35</v>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>10</v>
       </c>
@@ -6623,8 +6882,25 @@
         <f>E2*H2</f>
         <v>10</v>
       </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2">
+        <f t="array" ref="M2:N7">LINEST(E2:E6,C2:C6,,TRUE)</f>
+        <v>6.3794307196562853E-3</v>
+      </c>
+      <c r="N2">
+        <v>2.4052631578947214E-2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="e">
+        <f>ABS(P2-M2)/ABS(M3)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>10</v>
       </c>
@@ -6652,8 +6928,17 @@
         <f t="shared" ref="J3:J6" si="2">E3*H3</f>
         <v>3.3000000000000003</v>
       </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3">
+        <v>1.659638428518631E-4</v>
+      </c>
+      <c r="N3">
+        <v>1.5057960831679299E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>10</v>
       </c>
@@ -6681,8 +6966,14 @@
         <f t="shared" si="2"/>
         <v>1.6027777777777779</v>
       </c>
+      <c r="M4">
+        <v>0.99797370130212526</v>
+      </c>
+      <c r="N4">
+        <v>1.6947175779972644E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>10</v>
       </c>
@@ -6710,8 +7001,14 @@
         <f t="shared" si="2"/>
         <v>1.1671875</v>
       </c>
+      <c r="M5">
+        <v>1477.5319685328054</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>10</v>
       </c>
@@ -6739,10 +7036,22 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
+      <c r="M6">
+        <v>0.42435717969924813</v>
+      </c>
+      <c r="N6">
+        <v>8.6162030075187404E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
+      <c r="M7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N7" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6753,29 +7062,44 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0.1802</v>
       </c>
@@ -6787,6 +7111,24 @@
       </c>
       <c r="D2">
         <v>2.42</v>
+      </c>
+      <c r="F2">
+        <v>140</v>
+      </c>
+      <c r="G2">
+        <v>140</v>
+      </c>
+      <c r="H2">
+        <f>F2/G2</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>H2*H2</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>I2*B2</f>
+        <v>0.26600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6798,8 +7140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6815,13 +7157,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -6830,22 +7172,22 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6863,21 +7205,21 @@
       </c>
       <c r="F2">
         <f>A2*K2</f>
-        <v>1.0049999999999999</v>
+        <v>0.6432000000000001</v>
       </c>
       <c r="H2">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="I2">
         <v>140</v>
       </c>
       <c r="J2">
         <f>H2/I2</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
         <f>J2*J2</f>
-        <v>1</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="M2">
         <f>A2*B2*COS(RADIANS(C2))</f>
@@ -6906,7 +7248,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6925,13 +7267,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -6940,7 +7282,7 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6948,7 +7290,7 @@
         <v>0.67800000000000005</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>0.28399999999999997</v>
@@ -6984,7 +7326,7 @@
         <v>0.70099999999999996</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>0.29899999999999999</v>
@@ -7010,7 +7352,7 @@
         <v>0.73</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>0.318</v>
@@ -7036,7 +7378,7 @@
         <v>0.75</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>0.33200000000000002</v>
@@ -7062,7 +7404,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>0.34799999999999998</v>
@@ -7088,7 +7430,7 @@
         <v>0.83</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0.38200000000000001</v>
@@ -7114,7 +7456,7 @@
         <v>0.98</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>0.42499999999999999</v>
@@ -7140,7 +7482,7 @@
         <v>1.0149999999999999</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>0.498</v>
@@ -7166,7 +7508,7 @@
         <v>1.177</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>0.59699999999999998</v>
@@ -7192,7 +7534,7 @@
         <v>1.3740000000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>0.71699999999999997</v>
@@ -7218,7 +7560,7 @@
         <v>1.496</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>0.79</v>
@@ -7245,7 +7587,7 @@
         <v>1.607</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>0.85699999999999998</v>
@@ -7271,7 +7613,7 @@
         <v>1.736</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>0.93500000000000005</v>
@@ -7297,7 +7639,7 @@
         <v>1.8879999999999999</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>1.0269999999999999</v>
@@ -7323,7 +7665,7 @@
         <v>1.984</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>1.085</v>
@@ -7346,7 +7688,7 @@
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.55000000000000004">

--- a/exp3/exp3.xlsx
+++ b/exp3/exp3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10284" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10284" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="exp2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
   <si>
     <t>Vs</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Rp</t>
+  </si>
+  <si>
+    <t>Xp</t>
+  </si>
+  <si>
+    <t>1+a^2</t>
   </si>
 </sst>
 </file>
@@ -2604,6 +2613,10 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Rl</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [Ohm]</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2720,7 +2733,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Is^2Rl</a:t>
+                  <a:t>Is^2Rl [W]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6644,8 +6657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6808,7 +6821,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7127,8 +7140,8 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <f>I2*B2</f>
-        <v>0.26600000000000001</v>
+        <f>I2*A2</f>
+        <v>0.1802</v>
       </c>
     </row>
   </sheetData>
@@ -7138,7 +7151,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
@@ -7238,6 +7251,31 @@
         <v>2.0440928861518044</v>
       </c>
     </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="O5">
+        <f>1+K2</f>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="P5">
+        <f>P2/O5</f>
+        <v>0.31770289222922893</v>
+      </c>
+      <c r="Q5">
+        <f>Q2/O5</f>
+        <v>1.2463981013120757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7247,8 +7285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/exp3/exp3.xlsx
+++ b/exp3/exp3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10284" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10284" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="exp2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>Vs</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>1+a^2</t>
+  </si>
+  <si>
+    <t>Ps=Is^2R</t>
+  </si>
+  <si>
+    <t>P_tot</t>
+  </si>
+  <si>
+    <t>P_eff</t>
+  </si>
+  <si>
+    <t>etta efficiency</t>
   </si>
 </sst>
 </file>
@@ -7151,10 +7163,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7218,21 +7230,21 @@
       </c>
       <c r="F2">
         <f>A2*K2</f>
-        <v>0.6432000000000001</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="H2">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="I2">
         <v>140</v>
       </c>
       <c r="J2">
         <f>H2/I2</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <f>J2*J2</f>
-        <v>0.64000000000000012</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <f>A2*B2*COS(RADIANS(C2))</f>
@@ -7252,6 +7264,12 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
       <c r="O4" t="s">
         <v>52</v>
       </c>
@@ -7263,17 +7281,43 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <f>A2*B2</f>
+        <v>2.1305999999999998</v>
+      </c>
       <c r="O5">
         <f>1+K2</f>
-        <v>1.6400000000000001</v>
+        <v>2</v>
       </c>
       <c r="P5">
         <f>P2/O5</f>
-        <v>0.31770289222922893</v>
+        <v>0.26051637162796776</v>
       </c>
       <c r="Q5">
         <f>Q2/O5</f>
-        <v>1.2463981013120757</v>
+        <v>1.0220464430759022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <f>M2</f>
+        <v>0.52625609650707617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <f>A7/A5</f>
+        <v>0.24699901272274299</v>
       </c>
     </row>
   </sheetData>
@@ -7285,7 +7329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
